--- a/data/trans_camb/P22_R4-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P22_R4-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-2.853291689864505</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.6306113221499863</v>
+        <v>-0.6306113221499876</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.124854908876812</v>
+        <v>-2.897665230542824</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.955889725915108</v>
+        <v>-4.893324638476955</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.05286564311689</v>
+        <v>-3.017533800440984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.404415764495023</v>
+        <v>-5.628446279953614</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-5.758015851268024</v>
+        <v>-5.699119898488924</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.465709909222117</v>
+        <v>-3.548986856151243</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-3.33054917036621</v>
+        <v>-3.497549482788306</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.537654954468539</v>
+        <v>-4.552763936956612</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.59056209147877</v>
+        <v>-2.363488468791295</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.598019593364305</v>
+        <v>2.833906176180137</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1341400419323546</v>
+        <v>0.4592454850842527</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.299343771192274</v>
+        <v>2.220881899371818</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.4714216120800407</v>
+        <v>-0.5821101042263337</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.970686530045485</v>
+        <v>-0.8620285506976429</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.376072966544481</v>
+        <v>1.469447869651711</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.369229448308459</v>
+        <v>0.462199020992431</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.164056173279827</v>
+        <v>-1.031263331710586</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.025128458937011</v>
+        <v>1.165463254751236</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.4097727747131533</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.09056464579518721</v>
+        <v>-0.0905646457951874</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3860523133500872</v>
+        <v>-0.3489855983499041</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6037118016323475</v>
+        <v>-0.5883260115968154</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3715029605667137</v>
+        <v>-0.374554465120234</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6530375402725869</v>
+        <v>-0.6634365563056475</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.6956160017691578</v>
+        <v>-0.6760523757498822</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4133830986035724</v>
+        <v>-0.4125785766313338</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4353092984612556</v>
+        <v>-0.4257759578668087</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5816302719840639</v>
+        <v>-0.5793472666128205</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.3220823462566385</v>
+        <v>-0.3022257303419784</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4625679777123601</v>
+        <v>0.4776154896495911</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02337803698029495</v>
+        <v>0.09631963662988609</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4105302102930526</v>
+        <v>0.4093388931687694</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.08110229206904175</v>
+        <v>-0.07536153831808141</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1577972976746077</v>
+        <v>-0.1021875706662575</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2456518345368977</v>
+        <v>0.2754288607857883</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06867826444555014</v>
+        <v>0.08751022555765232</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.193082160804875</v>
+        <v>-0.1672146768706812</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1670947496268358</v>
+        <v>0.1903485035210687</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.004150165554223095</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3.645730816218411</v>
+        <v>3.645730816218414</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-2.177872498682401</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.470585747780412</v>
+        <v>-3.124327172582069</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.114233167589383</v>
+        <v>-2.667727864226631</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6519799917890747</v>
+        <v>0.5428222361176934</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.74589939466503</v>
+        <v>-4.42795774355657</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.552994027281435</v>
+        <v>-3.610741330391497</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2861636203336989</v>
+        <v>0.4800827486883927</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-3.006409795736531</v>
+        <v>-2.860436330903901</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.480360800220678</v>
+        <v>-2.29610289550759</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.229196335797637</v>
+        <v>1.350976716074475</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.306966343812688</v>
+        <v>2.479924476235419</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.368718128980002</v>
+        <v>2.711909934422357</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.701473791032804</v>
+        <v>7.085717051392279</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07669738384833194</v>
+        <v>0.1192754653594469</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.191650543138651</v>
+        <v>1.34227697403262</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.671477940584881</v>
+        <v>5.390611375193091</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.5244497792942506</v>
+        <v>0.8271208040184223</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.147052527298087</v>
+        <v>1.32162203282856</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.479357924205399</v>
+        <v>5.368004317784861</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.0004636656637524713</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4073091004874838</v>
+        <v>0.407309100487484</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.2684804930738002</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3120415044823478</v>
+        <v>-0.2988132335087882</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2941426709349311</v>
+        <v>-0.2656291490438863</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.05255936499536094</v>
+        <v>0.04798081465814302</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4998867643548295</v>
+        <v>-0.4811951096619196</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.385137982067358</v>
+        <v>-0.3808332944980246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02909182592844954</v>
+        <v>0.05632794295275147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3195891526582661</v>
+        <v>-0.3115833921754208</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2639542765671812</v>
+        <v>-0.2480072440859081</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1307132684953168</v>
+        <v>0.1403978727954706</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3138878249094424</v>
+        <v>0.3274026093377571</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3068731211778028</v>
+        <v>0.3417787575311895</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.8739488120141787</v>
+        <v>0.9441889209986721</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.01640279675127442</v>
+        <v>0.02196137215408924</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1817277762652326</v>
+        <v>0.2011159811813097</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8243379365320929</v>
+        <v>0.8062747778345287</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07707492434033369</v>
+        <v>0.1073338943746021</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1534409880703613</v>
+        <v>0.178659233032665</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7206981047095454</v>
+        <v>0.7127152589059933</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.800679211379404</v>
+        <v>-5.610217168238546</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.70927219936388</v>
+        <v>-10.60496235426633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.90611630228074</v>
+        <v>-1.918920680350186</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.838204530476257</v>
+        <v>-5.066056064960929</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.56059164600536</v>
+        <v>-7.329965784621442</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8222249122827261</v>
+        <v>0.6110582022445894</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.220016905040625</v>
+        <v>-4.163225845204783</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-8.179241144621255</v>
+        <v>-8.133374673102137</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6831662264922961</v>
+        <v>0.3910890404128314</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.771279025589082</v>
+        <v>1.412938282879992</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.50208586970019</v>
+        <v>-4.511388511197272</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.652023547677654</v>
+        <v>5.704285920343899</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.928757026183241</v>
+        <v>1.722692505702979</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.507961581782426</v>
+        <v>-1.487087752876216</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.478647628984253</v>
+        <v>7.282478589503549</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7333374909458457</v>
+        <v>0.7618078124161924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.869604988282915</v>
+        <v>-3.919041854164211</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.801546613768789</v>
+        <v>5.462262424822293</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3951745378529753</v>
+        <v>-0.3809575822815663</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7346437052663611</v>
+        <v>-0.7338016805021002</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1388819269935489</v>
+        <v>-0.1345585515963756</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.37864764495877</v>
+        <v>-0.3993986854291868</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5868078808928692</v>
+        <v>-0.5786901482100889</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03985748595842422</v>
+        <v>0.04997669588458251</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3214718659228014</v>
+        <v>-0.3272493797423514</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6267660543742292</v>
+        <v>-0.6195403292704793</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.05139978554120647</v>
+        <v>0.03089678054370414</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1661332775882672</v>
+        <v>0.14438592920419</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4136028740632097</v>
+        <v>-0.4157579721665232</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.5405815059341955</v>
+        <v>0.5443591939685666</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2114769333818445</v>
+        <v>0.1830322937023504</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1488268764693716</v>
+        <v>-0.1529257552215164</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8086677007186842</v>
+        <v>0.78587828839878</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07202275646852384</v>
+        <v>0.06852293332952308</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.3644600605757149</v>
+        <v>-0.3608574467643845</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.5733574914279858</v>
+        <v>0.5343197609451098</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.216622577884561</v>
+        <v>-6.161334407269727</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.183301958059083</v>
+        <v>-3.914470763036898</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.430039018796483</v>
+        <v>1.853140678736574</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.926188427335315</v>
+        <v>-4.212223926881266</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.442464519970911</v>
+        <v>-2.400089946367254</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.117808458242943</v>
+        <v>4.580918786200774</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.145754159996186</v>
+        <v>-4.024376957056294</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.337154867145594</v>
+        <v>-2.312999425266586</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.752513346443716</v>
+        <v>3.975148248560262</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.3874736440508763</v>
+        <v>-0.2203685022519114</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.096311767417999</v>
+        <v>2.053629568684016</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.00562799873593</v>
+        <v>8.435486079142459</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.729785638219964</v>
+        <v>1.511633345739521</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.241608211970674</v>
+        <v>3.63129935757155</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.897737494622071</v>
+        <v>10.25884509083643</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01532763358201931</v>
+        <v>-0.06109863456837619</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.861171611711901</v>
+        <v>1.944457736229071</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.283946635586316</v>
+        <v>8.258869867650164</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.418174595524554</v>
+        <v>-0.4074247093569299</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.282072270852062</v>
+        <v>-0.2538674875886459</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09758692815788969</v>
+        <v>0.1248201061261468</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3087548901431869</v>
+        <v>-0.3188142098109517</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1850106541566668</v>
+        <v>-0.1929640563738462</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3060247956924021</v>
+        <v>0.3372168519937035</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3085451864146975</v>
+        <v>-0.2993035088710673</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1726080303857048</v>
+        <v>-0.1717035192936245</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2705544773314891</v>
+        <v>0.2864994838644383</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.02846115848552669</v>
+        <v>-0.01667655606617617</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1760835461507049</v>
+        <v>0.1763398600735054</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.6599495328662766</v>
+        <v>0.6921923713195759</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1669125587889965</v>
+        <v>0.1491351103908735</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3228444781353775</v>
+        <v>0.3384006070088513</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9624838123574891</v>
+        <v>1.008024728426834</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.007492917950754077</v>
+        <v>-0.004155677285002028</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1616934544180749</v>
+        <v>0.1694046356515511</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7206291449417913</v>
+        <v>0.727848610385446</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>-1.777367527497685</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.696097447154179</v>
+        <v>3.696097447154181</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-1.622019559435417</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.939438320830607</v>
+        <v>-2.861595827367404</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.023977520005753</v>
+        <v>-3.906682469382007</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.181183154288539</v>
+        <v>1.189975663044523</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-3.11201763176827</v>
+        <v>-3.356526087225292</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-3.050281790599187</v>
+        <v>-3.138007178044256</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.286123274957707</v>
+        <v>2.143431609622623</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.628771413339833</v>
+        <v>-2.579759776463503</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.048663558223969</v>
+        <v>-3.033974107143852</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.094393144657605</v>
+        <v>2.210159300151735</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.2340972860325731</v>
+        <v>0.04470777117816066</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.8515662149816414</v>
+        <v>-1.004711644723153</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.472417340727815</v>
+        <v>4.668115195005851</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.4157962384672252</v>
+        <v>-0.5418898930996542</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.4800580522036216</v>
+        <v>-0.4164366019426564</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.093392074712533</v>
+        <v>5.042343357955299</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.5982820319694642</v>
+        <v>-0.4909779444406236</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.052322961652077</v>
+        <v>-1.113117673303705</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>4.316053728749452</v>
+        <v>4.506695361268746</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>-0.1866018920694616</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3880451095464131</v>
+        <v>0.3880451095464134</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1613921430758968</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2566569951435272</v>
+        <v>-0.2546781094325754</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3477120348044921</v>
+        <v>-0.340755708017273</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1027615655829909</v>
+        <v>0.106856179543319</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3101597243532737</v>
+        <v>-0.3189673489080134</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2984709131185645</v>
+        <v>-0.306506264979019</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2184924581244049</v>
+        <v>0.208820915631137</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2467979194864401</v>
+        <v>-0.2419436708374092</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.2895044721177085</v>
+        <v>-0.2916444285497553</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1971928738020813</v>
+        <v>0.205692240616075</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.02593117362736834</v>
+        <v>0.006669823073883098</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.08511951993099685</v>
+        <v>-0.09407962362872005</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4499814497945727</v>
+        <v>0.4761448036130995</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.05092303748033347</v>
+        <v>-0.05617466995763897</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.05563327878586873</v>
+        <v>-0.04545737611785572</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5949080414397634</v>
+        <v>0.5759704546948093</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.05885598566517265</v>
+        <v>-0.0503800686398377</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.1097428849801329</v>
+        <v>-0.1156422276727166</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4595327060051475</v>
+        <v>0.4640788848482026</v>
       </c>
     </row>
     <row r="34">
